--- a/data/long_bre/IMC_R-Estudios-long_bre.xlsx
+++ b/data/long_bre/IMC_R-Estudios-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-26,29%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 6,33</t>
+          <t>-4,2; 12,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 3,24</t>
+          <t>-9,92; 3,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 73,36</t>
+          <t>-9,15; 11,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 30,71</t>
+          <t>-39,11; 221,68</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-56,7; 33,43</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 118,94</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 12,58</t>
+          <t>-13,59; 10,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 9,64</t>
+          <t>-7,91; 9,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 18,6</t>
+          <t>-18,32; 8,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 13,37</t>
+          <t>-16,13; 15,1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 13,55</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; 11,75</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>-21,29%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 8,49</t>
+          <t>-11,4; 6,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,47</t>
+          <t>-3,69; 9,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,86; 111,94</t>
+          <t>-7,01; 11,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 135,92</t>
+          <t>-64,69; 98,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-35,44; 158,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-65,49; 340,36</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 43,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 80,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>-22,02%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-4,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,01</t>
+          <t>-7,65; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,19</t>
+          <t>-3,64; 2,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 6,31</t>
+          <t>-2,22; 8,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 10,09</t>
+          <t>-55,26; 30,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-45,51; 65,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; 116,53</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-33,15%</t>
+          <t>-1,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,6</t>
+          <t>-7,55; 5,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 0,35</t>
+          <t>-1,17; 8,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 103,34</t>
+          <t>-10,6; 3,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,49; 6,81</t>
+          <t>-8,78; 6,75</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 10,36</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 4,7</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-49,07%</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-41,48%</t>
+          <t>53,13%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-32,3%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -0,01</t>
+          <t>-0,78; 8,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -0,27</t>
+          <t>-7,43; 0,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 0,63</t>
+          <t>-4,2; 5,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 0,45</t>
+          <t>-12,86; 178,5</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-60,84; 8,46</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-39,31; 109,36</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,03; 17,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 22,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 11,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-57,52%</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>-51,17%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-39,96%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -1,39</t>
+          <t>-9,04; -0,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,25</t>
+          <t>-10,04; -0,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-83,46; -17,36</t>
+          <t>-8,61; 1,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 100,56</t>
+          <t>-78,09; 2,64</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-70,25; 1,72</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-63,57; 17,95</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-20,09%</t>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,63</t>
+          <t>4,22; 18,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,87</t>
+          <t>-3,53; 8,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 8,03</t>
+          <t>-0,19; 14,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 12,15</t>
+          <t>5,1; 25,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 10,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 20,18</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>-60,46%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-26,61%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,09</t>
+          <t>-14,07; -1,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,03</t>
+          <t>-1,54; 5,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,05</t>
+          <t>-9,85; 2,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 7,58</t>
+          <t>-83,34; -20,92</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-18,83; 118,95</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-58,99; 26,78</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,668 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 24,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 25,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>9,18%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 9,6</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-49,26; 120,17</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 9,25</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 12,41</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-15,27%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 5,56</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-68,23; 114,9</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-22,89%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 1,26</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 0,67</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 3,74</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; 16,13</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-44,78; 8,8</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-26,44; 42,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 6,8</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 5,86</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 4,92</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 8,65</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 7,38</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 6,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>-11,94%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 1,91</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 2,39</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 3,09</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-38,66; 28,85</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-27,7; 35,11</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-33,05; 44,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
